--- a/risk_matrix/risk_matrix.xlsx
+++ b/risk_matrix/risk_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Matrix" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Risk Matrix" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -514,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +530,20 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>214</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +553,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="inlineStr"/>
     </row>
@@ -585,9 +583,7 @@
       <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
@@ -596,20 +592,18 @@
           <t>Low-level malicious attack</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr"/>
       <c r="C6" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="inlineStr"/>
     </row>
@@ -620,22 +614,22 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
